--- a/MLB_BATTER_PROPS_June04_colored.xlsx
+++ b/MLB_BATTER_PROPS_June04_colored.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reisn\Desktop\NHL Betting\MLB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AA26CF-A307-48C1-AD77-AD15FFC7F191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61413A9-610B-4FFE-91A3-1402CA40A3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1548,8 +1548,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DG225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="DG1" sqref="DG1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -75952,6 +75955,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:DG225" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>